--- a/INPUT/DATA_IN_MA3.xlsx
+++ b/INPUT/DATA_IN_MA3.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jim/Documents/Work/Facette_36Cl/Facet_36Cl_CREp/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3A0CC5-0709-EF48-93F2-31CB15171F7C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905C0540-D462-6349-9260-2DB2F44168AC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27400" yWindow="-3100" windowWidth="25600" windowHeight="15040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-31200" yWindow="-5140" windowWidth="25600" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
-    <sheet name="Site" sheetId="2" r:id="rId2"/>
+    <sheet name="Parameters" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021" iterateDelta="1E-4"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="134">
   <si>
     <t>sample name</t>
   </si>
@@ -46,18 +46,12 @@
     <t>altitude (masl)</t>
   </si>
   <si>
-    <t>shielding</t>
-  </si>
-  <si>
     <t>density (g/cm3)</t>
   </si>
   <si>
     <t>tickness (cm)</t>
   </si>
   <si>
-    <t>erosion (cm/a)</t>
-  </si>
-  <si>
     <t>36Cl conc (at/g)</t>
   </si>
   <si>
@@ -151,12 +145,6 @@
     <t>Cl_ppm_bulk</t>
   </si>
   <si>
-    <t>Cr_ppm_bulk</t>
-  </si>
-  <si>
-    <t>Co_ppm_bulk</t>
-  </si>
-  <si>
     <t>Sm_ppm_bulk</t>
   </si>
   <si>
@@ -185,12 +173,6 @@
   </si>
   <si>
     <t>± TiO2_%_target</t>
-  </si>
-  <si>
-    <t>± Th_ppm_bulk</t>
-  </si>
-  <si>
-    <t>± U_ppm_bulk</t>
   </si>
   <si>
     <t>± Cl_ppm_target</t>
@@ -574,7 +556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -670,9 +652,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1009,10 +988,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BQ18"/>
+  <dimension ref="A1:BK18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AL2" sqref="AL2:AL11"/>
+    <sheetView topLeftCell="AS1" workbookViewId="0">
+      <selection activeCell="BB5" sqref="BB5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1021,32 +1000,29 @@
     <col min="2" max="4" width="13.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.83203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="13.83203125" style="3" customWidth="1"/>
-    <col min="7" max="11" width="13.83203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.83203125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="13.83203125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="13.83203125" style="3" customWidth="1"/>
-    <col min="15" max="16" width="13.83203125" style="5" customWidth="1"/>
-    <col min="17" max="17" width="13.83203125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="13.83203125" style="3" customWidth="1"/>
-    <col min="19" max="21" width="13.83203125" style="2" customWidth="1"/>
-    <col min="22" max="22" width="13.83203125" style="3" customWidth="1"/>
-    <col min="23" max="24" width="13.83203125" style="2" customWidth="1"/>
+    <col min="7" max="9" width="13.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="13.83203125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" style="3" customWidth="1"/>
+    <col min="13" max="14" width="13.83203125" style="5" customWidth="1"/>
+    <col min="15" max="15" width="13.83203125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="13.83203125" style="3" customWidth="1"/>
+    <col min="17" max="19" width="13.83203125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="13.83203125" style="3" customWidth="1"/>
+    <col min="21" max="22" width="13.83203125" style="2" customWidth="1"/>
+    <col min="23" max="23" width="13.83203125" style="3" customWidth="1"/>
+    <col min="24" max="24" width="13.83203125" style="2" customWidth="1"/>
     <col min="25" max="25" width="13.83203125" style="3" customWidth="1"/>
-    <col min="26" max="26" width="13.83203125" style="2" customWidth="1"/>
-    <col min="27" max="27" width="13.83203125" style="3" customWidth="1"/>
-    <col min="28" max="31" width="13.83203125" style="6" customWidth="1"/>
-    <col min="32" max="45" width="13.83203125" style="7" customWidth="1"/>
-    <col min="46" max="48" width="13.83203125" style="10" customWidth="1"/>
-    <col min="49" max="50" width="13.83203125" style="8" customWidth="1"/>
-    <col min="51" max="53" width="13.83203125" style="10" customWidth="1"/>
-    <col min="54" max="54" width="13.83203125" style="9" customWidth="1"/>
-    <col min="55" max="55" width="13.83203125" style="10" customWidth="1"/>
-    <col min="56" max="56" width="13.83203125" style="9" customWidth="1"/>
-    <col min="57" max="57" width="10.83203125" style="1"/>
-    <col min="58" max="69" width="10.83203125" style="23"/>
+    <col min="26" max="29" width="13.83203125" style="6" customWidth="1"/>
+    <col min="30" max="43" width="13.83203125" style="7" customWidth="1"/>
+    <col min="44" max="46" width="13.83203125" style="10" customWidth="1"/>
+    <col min="47" max="47" width="13.83203125" style="8" customWidth="1"/>
+    <col min="48" max="49" width="13.83203125" style="10" customWidth="1"/>
+    <col min="50" max="51" width="13.83203125" style="9" customWidth="1"/>
+    <col min="52" max="63" width="10.83203125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" s="37" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:63" s="36" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1060,13 +1036,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H1" s="11" t="s">
         <v>4</v>
@@ -1075,72 +1051,72 @@
         <v>5</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="11" t="s">
-        <v>45</v>
-      </c>
       <c r="M1" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="N1" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="P1" s="13" t="s">
+      <c r="O1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="Q1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="R1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="S1" s="11" t="s">
         <v>13</v>
-      </c>
-      <c r="S1" s="12" t="s">
-        <v>47</v>
       </c>
       <c r="T1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="U1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="V1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="W1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="X1" s="11" t="s">
+      <c r="X1" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="Z1" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA1" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB1" s="12" t="s">
-        <v>50</v>
+      <c r="AB1" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="AC1" s="14" t="s">
         <v>20</v>
       </c>
       <c r="AD1" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="AF1" s="14" t="s">
+      <c r="AF1" s="13" t="s">
         <v>23</v>
       </c>
       <c r="AG1" s="13" t="s">
@@ -1174,19 +1150,19 @@
         <v>33</v>
       </c>
       <c r="AQ1" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="AR1" s="13" t="s">
+      <c r="AS1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="AS1" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="AT1" s="13" t="s">
+      <c r="AU1" s="13" t="s">
         <v>36</v>
-      </c>
-      <c r="AU1" s="13" t="s">
-        <v>21</v>
       </c>
       <c r="AV1" s="13" t="s">
         <v>37</v>
@@ -1194,46 +1170,28 @@
       <c r="AW1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AX1" s="36" t="s">
+      <c r="AX1" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="AY1" s="36" t="s">
+      <c r="AY1" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="AZ1" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="BA1" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="BB1" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="BC1" s="12" t="s">
+      <c r="AZ1" s="39"/>
+      <c r="BA1" s="39"/>
+      <c r="BB1" s="39"/>
+      <c r="BC1" s="39"/>
+      <c r="BD1" s="39"/>
+      <c r="BE1" s="39"/>
+      <c r="BF1" s="39"/>
+      <c r="BG1" s="39"/>
+      <c r="BH1" s="39"/>
+      <c r="BI1" s="39"/>
+      <c r="BJ1" s="39"/>
+      <c r="BK1" s="39"/>
+    </row>
+    <row r="2" spans="1:63" s="34" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
         <v>51</v>
-      </c>
-      <c r="BD1" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="BE1" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="BF1" s="40"/>
-      <c r="BG1" s="40"/>
-      <c r="BH1" s="40"/>
-      <c r="BI1" s="40"/>
-      <c r="BJ1" s="40"/>
-      <c r="BK1" s="40"/>
-      <c r="BL1" s="40"/>
-      <c r="BM1" s="40"/>
-      <c r="BN1" s="40"/>
-      <c r="BO1" s="40"/>
-      <c r="BP1" s="40"/>
-      <c r="BQ1" s="40"/>
-    </row>
-    <row r="2" spans="1:69" s="34" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
-        <v>57</v>
       </c>
       <c r="B2" s="26">
         <v>42.121783000000001</v>
@@ -1254,55 +1212,55 @@
         <v>34578.779456169643</v>
       </c>
       <c r="H2" s="28">
-        <v>1</v>
+        <v>2.77</v>
       </c>
       <c r="I2" s="28">
-        <v>2.77</v>
-      </c>
-      <c r="J2" s="28">
         <v>2.6</v>
       </c>
-      <c r="K2" s="28">
-        <v>0</v>
-      </c>
-      <c r="L2" s="18">
+      <c r="J2" s="18">
         <v>150000</v>
       </c>
+      <c r="K2" s="19">
+        <f t="shared" ref="K2:K11" si="0">J2*0.1</f>
+        <v>15000</v>
+      </c>
+      <c r="L2" s="30">
+        <v>27.347736002910604</v>
+      </c>
       <c r="M2" s="19">
-        <f t="shared" ref="M2:M11" si="0">L2*0.1</f>
-        <v>15000</v>
-      </c>
-      <c r="N2" s="30">
-        <v>27.347736002910604</v>
-      </c>
-      <c r="O2" s="19">
-        <f>N2*0.1</f>
+        <f>L2*0.1</f>
         <v>2.7347736002910605</v>
       </c>
-      <c r="P2" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="28">
+      <c r="N2" s="31">
+        <v>0</v>
+      </c>
+      <c r="O2" s="28">
         <v>3.0875E-2</v>
       </c>
-      <c r="R2" s="32">
-        <v>0</v>
-      </c>
-      <c r="S2" s="32">
-        <v>0</v>
-      </c>
-      <c r="T2" s="28">
+      <c r="P2" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="32">
+        <v>0</v>
+      </c>
+      <c r="R2" s="28">
         <v>4.1250000000000002E-3</v>
       </c>
-      <c r="U2" s="28">
+      <c r="S2" s="28">
         <v>0.38950000000000001</v>
       </c>
-      <c r="V2" s="35">
+      <c r="T2" s="35">
         <v>53.658453659999999</v>
       </c>
-      <c r="W2" s="19">
+      <c r="U2" s="19">
         <v>10</v>
       </c>
+      <c r="V2" s="28">
+        <v>0</v>
+      </c>
+      <c r="W2" s="28">
+        <v>0</v>
+      </c>
       <c r="X2" s="28">
         <v>0</v>
       </c>
@@ -1313,116 +1271,96 @@
         <v>0</v>
       </c>
       <c r="AA2" s="28">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="28">
+        <v>3.3750000000000002E-2</v>
+      </c>
+      <c r="AB2" s="33">
         <v>0</v>
       </c>
       <c r="AC2" s="28">
+        <v>0.28749999999999998</v>
+      </c>
+      <c r="AD2" s="28">
+        <v>43.85</v>
+      </c>
+      <c r="AE2" s="28">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="28">
+        <v>3.0875E-2</v>
+      </c>
+      <c r="AG2" s="28">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="28">
+        <v>4.1250000000000002E-3</v>
+      </c>
+      <c r="AI2" s="28">
+        <v>0.38950000000000001</v>
+      </c>
+      <c r="AJ2" s="35">
+        <v>53.658453659999999</v>
+      </c>
+      <c r="AK2" s="28">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="28">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="28">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="28">
         <v>3.3750000000000002E-2</v>
       </c>
-      <c r="AD2" s="33">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="28">
+      <c r="AO2" s="28">
         <v>0.28749999999999998</v>
       </c>
-      <c r="AF2" s="28">
+      <c r="AP2" s="28">
         <v>43.85</v>
       </c>
-      <c r="AG2" s="28">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="28">
-        <v>3.0875E-2</v>
-      </c>
-      <c r="AI2" s="28">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="28">
-        <v>4.1250000000000002E-3</v>
-      </c>
-      <c r="AK2" s="28">
-        <v>0.38950000000000001</v>
-      </c>
-      <c r="AL2" s="35">
-        <v>53.658453659999999</v>
-      </c>
-      <c r="AM2" s="28">
-        <v>0</v>
-      </c>
-      <c r="AN2" s="28">
-        <v>0</v>
-      </c>
-      <c r="AO2" s="28">
-        <v>0</v>
-      </c>
-      <c r="AP2" s="28">
-        <v>3.3750000000000002E-2</v>
-      </c>
       <c r="AQ2" s="28">
-        <v>0.28749999999999998</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="AR2" s="28">
-        <v>43.85</v>
+        <v>0</v>
       </c>
       <c r="AS2" s="28">
-        <v>1.4999999999999999E-2</v>
+        <v>0.91874999999999996</v>
       </c>
       <c r="AT2" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU2" s="28">
-        <v>0.91874999999999996</v>
+        <v>27.35</v>
       </c>
       <c r="AV2" s="28">
-        <v>2</v>
+        <v>9.6500000000000002E-2</v>
       </c>
       <c r="AW2" s="28">
-        <v>27.35</v>
+        <v>0.11075</v>
       </c>
       <c r="AX2" s="28">
-        <v>0</v>
+        <v>3.7874999999999999E-2</v>
       </c>
       <c r="AY2" s="28">
-        <v>2.1150000000000002</v>
-      </c>
-      <c r="AZ2" s="28">
-        <v>9.6500000000000002E-2</v>
-      </c>
-      <c r="BA2" s="28">
-        <v>0.11075</v>
-      </c>
-      <c r="BB2" s="28">
-        <v>3.7874999999999999E-2</v>
-      </c>
-      <c r="BC2" s="19">
-        <f>BB2*0.05</f>
-        <v>1.89375E-3</v>
-      </c>
-      <c r="BD2" s="28">
         <v>0.31087500000000001</v>
       </c>
-      <c r="BE2" s="19">
-        <f>BD2*0.08</f>
-        <v>2.4870000000000003E-2</v>
-      </c>
+      <c r="AZ2" s="24"/>
+      <c r="BA2" s="24"/>
+      <c r="BB2" s="24"/>
+      <c r="BC2" s="24"/>
+      <c r="BD2" s="24"/>
+      <c r="BE2" s="24"/>
       <c r="BF2" s="24"/>
       <c r="BG2" s="24"/>
       <c r="BH2" s="24"/>
       <c r="BI2" s="24"/>
       <c r="BJ2" s="24"/>
       <c r="BK2" s="24"/>
-      <c r="BL2" s="24"/>
-      <c r="BM2" s="24"/>
-      <c r="BN2" s="24"/>
-      <c r="BO2" s="24"/>
-      <c r="BP2" s="24"/>
-      <c r="BQ2" s="24"/>
-    </row>
-    <row r="3" spans="1:69" s="34" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:63" s="34" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B3" s="26">
         <v>42.12164817</v>
@@ -1443,55 +1381,55 @@
         <v>40164.583249570918</v>
       </c>
       <c r="H3" s="28">
-        <v>1</v>
+        <v>2.77</v>
       </c>
       <c r="I3" s="28">
-        <v>2.77</v>
-      </c>
-      <c r="J3" s="28">
         <v>3</v>
       </c>
-      <c r="K3" s="28">
-        <v>0</v>
-      </c>
-      <c r="L3" s="18">
+      <c r="J3" s="18">
         <v>150000</v>
       </c>
-      <c r="M3" s="19">
+      <c r="K3" s="19">
         <f t="shared" si="0"/>
         <v>15000</v>
       </c>
-      <c r="N3" s="30">
+      <c r="L3" s="30">
         <v>39.815601842719225</v>
       </c>
-      <c r="O3" s="19">
-        <f t="shared" ref="O3:O11" si="1">N3*0.1</f>
+      <c r="M3" s="19">
+        <f t="shared" ref="M3:M11" si="1">L3*0.1</f>
         <v>3.9815601842719226</v>
       </c>
-      <c r="P3" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="28">
+      <c r="N3" s="31">
+        <v>0</v>
+      </c>
+      <c r="O3" s="28">
         <v>3.0875E-2</v>
       </c>
-      <c r="R3" s="32">
-        <v>0</v>
-      </c>
-      <c r="S3" s="32">
-        <v>0</v>
-      </c>
-      <c r="T3" s="28">
+      <c r="P3" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="32">
+        <v>0</v>
+      </c>
+      <c r="R3" s="28">
         <v>4.1250000000000002E-3</v>
       </c>
-      <c r="U3" s="28">
+      <c r="S3" s="28">
         <v>0.38950000000000001</v>
       </c>
-      <c r="V3" s="35">
+      <c r="T3" s="35">
         <v>54.464368120000003</v>
       </c>
-      <c r="W3" s="19">
+      <c r="U3" s="19">
         <v>10</v>
       </c>
+      <c r="V3" s="28">
+        <v>0</v>
+      </c>
+      <c r="W3" s="28">
+        <v>0</v>
+      </c>
       <c r="X3" s="28">
         <v>0</v>
       </c>
@@ -1502,116 +1440,96 @@
         <v>0</v>
       </c>
       <c r="AA3" s="28">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="28">
+        <v>3.3750000000000002E-2</v>
+      </c>
+      <c r="AB3" s="33">
         <v>0</v>
       </c>
       <c r="AC3" s="28">
+        <v>0.28749999999999998</v>
+      </c>
+      <c r="AD3" s="28">
+        <v>43.85</v>
+      </c>
+      <c r="AE3" s="28">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="28">
+        <v>3.0875E-2</v>
+      </c>
+      <c r="AG3" s="28">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="28">
+        <v>4.1250000000000002E-3</v>
+      </c>
+      <c r="AI3" s="28">
+        <v>0.38950000000000001</v>
+      </c>
+      <c r="AJ3" s="35">
+        <v>54.464368120000003</v>
+      </c>
+      <c r="AK3" s="28">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="28">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="28">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="28">
         <v>3.3750000000000002E-2</v>
       </c>
-      <c r="AD3" s="33">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="28">
+      <c r="AO3" s="28">
         <v>0.28749999999999998</v>
       </c>
-      <c r="AF3" s="28">
+      <c r="AP3" s="28">
         <v>43.85</v>
       </c>
-      <c r="AG3" s="28">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="28">
-        <v>3.0875E-2</v>
-      </c>
-      <c r="AI3" s="28">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="28">
-        <v>4.1250000000000002E-3</v>
-      </c>
-      <c r="AK3" s="28">
-        <v>0.38950000000000001</v>
-      </c>
-      <c r="AL3" s="35">
-        <v>54.464368120000003</v>
-      </c>
-      <c r="AM3" s="28">
-        <v>0</v>
-      </c>
-      <c r="AN3" s="28">
-        <v>0</v>
-      </c>
-      <c r="AO3" s="28">
-        <v>0</v>
-      </c>
-      <c r="AP3" s="28">
-        <v>3.3750000000000002E-2</v>
-      </c>
       <c r="AQ3" s="28">
-        <v>0.28749999999999998</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="AR3" s="28">
-        <v>43.85</v>
+        <v>0</v>
       </c>
       <c r="AS3" s="28">
-        <v>1.4999999999999999E-2</v>
+        <v>0.91874999999999996</v>
       </c>
       <c r="AT3" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU3" s="28">
-        <v>0.91874999999999996</v>
+        <v>39.82</v>
       </c>
       <c r="AV3" s="28">
-        <v>2</v>
+        <v>9.6500000000000002E-2</v>
       </c>
       <c r="AW3" s="28">
-        <v>39.82</v>
+        <v>0.11075</v>
       </c>
       <c r="AX3" s="28">
-        <v>0</v>
+        <v>3.7874999999999999E-2</v>
       </c>
       <c r="AY3" s="28">
-        <v>2.1150000000000002</v>
-      </c>
-      <c r="AZ3" s="28">
-        <v>9.6500000000000002E-2</v>
-      </c>
-      <c r="BA3" s="28">
-        <v>0.11075</v>
-      </c>
-      <c r="BB3" s="28">
-        <v>3.7874999999999999E-2</v>
-      </c>
-      <c r="BC3" s="19">
-        <f t="shared" ref="BC3:BC11" si="2">BB3*0.05</f>
-        <v>1.89375E-3</v>
-      </c>
-      <c r="BD3" s="28">
         <v>0.31087500000000001</v>
       </c>
-      <c r="BE3" s="19">
-        <f t="shared" ref="BE3:BE11" si="3">BD3*0.08</f>
-        <v>2.4870000000000003E-2</v>
-      </c>
+      <c r="AZ3" s="24"/>
+      <c r="BA3" s="24"/>
+      <c r="BB3" s="24"/>
+      <c r="BC3" s="24"/>
+      <c r="BD3" s="24"/>
+      <c r="BE3" s="24"/>
       <c r="BF3" s="24"/>
       <c r="BG3" s="24"/>
       <c r="BH3" s="24"/>
       <c r="BI3" s="24"/>
       <c r="BJ3" s="24"/>
       <c r="BK3" s="24"/>
-      <c r="BL3" s="24"/>
-      <c r="BM3" s="24"/>
-      <c r="BN3" s="24"/>
-      <c r="BO3" s="24"/>
-      <c r="BP3" s="24"/>
-      <c r="BQ3" s="24"/>
-    </row>
-    <row r="4" spans="1:69" s="34" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:63" s="34" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B4" s="26">
         <v>42.121465829999998</v>
@@ -1632,55 +1550,55 @@
         <v>35471.904138203805</v>
       </c>
       <c r="H4" s="28">
-        <v>1</v>
+        <v>2.77</v>
       </c>
       <c r="I4" s="28">
-        <v>2.77</v>
-      </c>
-      <c r="J4" s="28">
         <v>2.5</v>
       </c>
-      <c r="K4" s="28">
-        <v>0</v>
-      </c>
-      <c r="L4" s="18">
+      <c r="J4" s="18">
         <v>150000</v>
       </c>
-      <c r="M4" s="19">
+      <c r="K4" s="19">
         <f t="shared" si="0"/>
         <v>15000</v>
       </c>
-      <c r="N4" s="30">
+      <c r="L4" s="30">
         <v>27.019540298283928</v>
       </c>
-      <c r="O4" s="19">
+      <c r="M4" s="19">
         <f t="shared" si="1"/>
         <v>2.7019540298283928</v>
       </c>
-      <c r="P4" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="28">
+      <c r="N4" s="31">
+        <v>0</v>
+      </c>
+      <c r="O4" s="28">
         <v>3.0875E-2</v>
       </c>
-      <c r="R4" s="32">
-        <v>0</v>
-      </c>
-      <c r="S4" s="32">
-        <v>0</v>
-      </c>
-      <c r="T4" s="28">
+      <c r="P4" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="32">
+        <v>0</v>
+      </c>
+      <c r="R4" s="28">
         <v>4.1250000000000002E-3</v>
       </c>
-      <c r="U4" s="28">
+      <c r="S4" s="28">
         <v>0.38950000000000001</v>
       </c>
-      <c r="V4" s="35">
+      <c r="T4" s="35">
         <v>55.225781660000003</v>
       </c>
-      <c r="W4" s="19">
+      <c r="U4" s="19">
         <v>10</v>
       </c>
+      <c r="V4" s="28">
+        <v>0</v>
+      </c>
+      <c r="W4" s="28">
+        <v>0</v>
+      </c>
       <c r="X4" s="28">
         <v>0</v>
       </c>
@@ -1691,116 +1609,96 @@
         <v>0</v>
       </c>
       <c r="AA4" s="28">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="28">
+        <v>3.3750000000000002E-2</v>
+      </c>
+      <c r="AB4" s="33">
         <v>0</v>
       </c>
       <c r="AC4" s="28">
+        <v>0.28749999999999998</v>
+      </c>
+      <c r="AD4" s="28">
+        <v>43.85</v>
+      </c>
+      <c r="AE4" s="28">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="28">
+        <v>3.0875E-2</v>
+      </c>
+      <c r="AG4" s="28">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="28">
+        <v>4.1250000000000002E-3</v>
+      </c>
+      <c r="AI4" s="28">
+        <v>0.38950000000000001</v>
+      </c>
+      <c r="AJ4" s="35">
+        <v>55.225781660000003</v>
+      </c>
+      <c r="AK4" s="28">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="28">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="28">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="28">
         <v>3.3750000000000002E-2</v>
       </c>
-      <c r="AD4" s="33">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="28">
+      <c r="AO4" s="28">
         <v>0.28749999999999998</v>
       </c>
-      <c r="AF4" s="28">
+      <c r="AP4" s="28">
         <v>43.85</v>
       </c>
-      <c r="AG4" s="28">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="28">
-        <v>3.0875E-2</v>
-      </c>
-      <c r="AI4" s="28">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="28">
-        <v>4.1250000000000002E-3</v>
-      </c>
-      <c r="AK4" s="28">
-        <v>0.38950000000000001</v>
-      </c>
-      <c r="AL4" s="35">
-        <v>55.225781660000003</v>
-      </c>
-      <c r="AM4" s="28">
-        <v>0</v>
-      </c>
-      <c r="AN4" s="28">
-        <v>0</v>
-      </c>
-      <c r="AO4" s="28">
-        <v>0</v>
-      </c>
-      <c r="AP4" s="28">
-        <v>3.3750000000000002E-2</v>
-      </c>
       <c r="AQ4" s="28">
-        <v>0.28749999999999998</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="AR4" s="28">
-        <v>43.85</v>
+        <v>0</v>
       </c>
       <c r="AS4" s="28">
-        <v>1.4999999999999999E-2</v>
+        <v>0.91874999999999996</v>
       </c>
       <c r="AT4" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU4" s="28">
-        <v>0.91874999999999996</v>
+        <v>27.02</v>
       </c>
       <c r="AV4" s="28">
-        <v>2</v>
+        <v>9.6500000000000002E-2</v>
       </c>
       <c r="AW4" s="28">
-        <v>27.02</v>
+        <v>0.11075</v>
       </c>
       <c r="AX4" s="28">
-        <v>0</v>
+        <v>3.7874999999999999E-2</v>
       </c>
       <c r="AY4" s="28">
-        <v>2.1150000000000002</v>
-      </c>
-      <c r="AZ4" s="28">
-        <v>9.6500000000000002E-2</v>
-      </c>
-      <c r="BA4" s="28">
-        <v>0.11075</v>
-      </c>
-      <c r="BB4" s="28">
-        <v>3.7874999999999999E-2</v>
-      </c>
-      <c r="BC4" s="19">
-        <f t="shared" si="2"/>
-        <v>1.89375E-3</v>
-      </c>
-      <c r="BD4" s="28">
         <v>0.31087500000000001</v>
       </c>
-      <c r="BE4" s="19">
-        <f t="shared" si="3"/>
-        <v>2.4870000000000003E-2</v>
-      </c>
+      <c r="AZ4" s="24"/>
+      <c r="BA4" s="24"/>
+      <c r="BB4" s="24"/>
+      <c r="BC4" s="24"/>
+      <c r="BD4" s="24"/>
+      <c r="BE4" s="24"/>
       <c r="BF4" s="24"/>
       <c r="BG4" s="24"/>
       <c r="BH4" s="24"/>
       <c r="BI4" s="24"/>
       <c r="BJ4" s="24"/>
       <c r="BK4" s="24"/>
-      <c r="BL4" s="24"/>
-      <c r="BM4" s="24"/>
-      <c r="BN4" s="24"/>
-      <c r="BO4" s="24"/>
-      <c r="BP4" s="24"/>
-      <c r="BQ4" s="24"/>
-    </row>
-    <row r="5" spans="1:69" s="34" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:63" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B5" s="26">
         <v>42.121215999999997</v>
@@ -1821,55 +1719,55 @@
         <v>43770.797889939335</v>
       </c>
       <c r="H5" s="28">
-        <v>1</v>
+        <v>2.77</v>
       </c>
       <c r="I5" s="28">
-        <v>2.77</v>
-      </c>
-      <c r="J5" s="28">
         <v>1.7</v>
       </c>
-      <c r="K5" s="28">
-        <v>0</v>
-      </c>
-      <c r="L5" s="18">
+      <c r="J5" s="18">
         <v>150000</v>
       </c>
-      <c r="M5" s="19">
+      <c r="K5" s="19">
         <f t="shared" si="0"/>
         <v>15000</v>
       </c>
-      <c r="N5" s="30">
+      <c r="L5" s="30">
         <v>102.78468117058644</v>
       </c>
-      <c r="O5" s="19">
+      <c r="M5" s="19">
         <f t="shared" si="1"/>
         <v>10.278468117058644</v>
       </c>
-      <c r="P5" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="28">
+      <c r="N5" s="31">
+        <v>0</v>
+      </c>
+      <c r="O5" s="28">
         <v>3.0875E-2</v>
       </c>
-      <c r="R5" s="32">
-        <v>0</v>
-      </c>
-      <c r="S5" s="32">
-        <v>0</v>
-      </c>
-      <c r="T5" s="28">
+      <c r="P5" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="32">
+        <v>0</v>
+      </c>
+      <c r="R5" s="28">
         <v>4.1250000000000002E-3</v>
       </c>
-      <c r="U5" s="28">
+      <c r="S5" s="28">
         <v>0.38950000000000001</v>
       </c>
-      <c r="V5" s="35">
+      <c r="T5" s="35">
         <v>33.305580060000004</v>
       </c>
-      <c r="W5" s="19">
+      <c r="U5" s="19">
         <v>10</v>
       </c>
+      <c r="V5" s="28">
+        <v>0</v>
+      </c>
+      <c r="W5" s="28">
+        <v>0</v>
+      </c>
       <c r="X5" s="28">
         <v>0</v>
       </c>
@@ -1880,116 +1778,96 @@
         <v>0</v>
       </c>
       <c r="AA5" s="28">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="28">
+        <v>3.3750000000000002E-2</v>
+      </c>
+      <c r="AB5" s="33">
         <v>0</v>
       </c>
       <c r="AC5" s="28">
+        <v>0.28749999999999998</v>
+      </c>
+      <c r="AD5" s="28">
+        <v>43.85</v>
+      </c>
+      <c r="AE5" s="28">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="28">
+        <v>3.0875E-2</v>
+      </c>
+      <c r="AG5" s="28">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="28">
+        <v>4.1250000000000002E-3</v>
+      </c>
+      <c r="AI5" s="28">
+        <v>0.38950000000000001</v>
+      </c>
+      <c r="AJ5" s="35">
+        <v>33.305580060000004</v>
+      </c>
+      <c r="AK5" s="28">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="28">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="28">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="28">
         <v>3.3750000000000002E-2</v>
       </c>
-      <c r="AD5" s="33">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="28">
+      <c r="AO5" s="28">
         <v>0.28749999999999998</v>
       </c>
-      <c r="AF5" s="28">
+      <c r="AP5" s="28">
         <v>43.85</v>
       </c>
-      <c r="AG5" s="28">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="28">
-        <v>3.0875E-2</v>
-      </c>
-      <c r="AI5" s="28">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="28">
-        <v>4.1250000000000002E-3</v>
-      </c>
-      <c r="AK5" s="28">
-        <v>0.38950000000000001</v>
-      </c>
-      <c r="AL5" s="35">
-        <v>33.305580060000004</v>
-      </c>
-      <c r="AM5" s="28">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="28">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="28">
-        <v>0</v>
-      </c>
-      <c r="AP5" s="28">
-        <v>3.3750000000000002E-2</v>
-      </c>
       <c r="AQ5" s="28">
-        <v>0.28749999999999998</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="AR5" s="28">
-        <v>43.85</v>
+        <v>0</v>
       </c>
       <c r="AS5" s="28">
-        <v>1.4999999999999999E-2</v>
+        <v>0.91874999999999996</v>
       </c>
       <c r="AT5" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU5" s="28">
-        <v>0.91874999999999996</v>
+        <v>102.78</v>
       </c>
       <c r="AV5" s="28">
-        <v>2</v>
+        <v>9.6500000000000002E-2</v>
       </c>
       <c r="AW5" s="28">
-        <v>102.78</v>
+        <v>0.11075</v>
       </c>
       <c r="AX5" s="28">
-        <v>0</v>
+        <v>3.7874999999999999E-2</v>
       </c>
       <c r="AY5" s="28">
-        <v>2.1150000000000002</v>
-      </c>
-      <c r="AZ5" s="28">
-        <v>9.6500000000000002E-2</v>
-      </c>
-      <c r="BA5" s="28">
-        <v>0.11075</v>
-      </c>
-      <c r="BB5" s="28">
-        <v>3.7874999999999999E-2</v>
-      </c>
-      <c r="BC5" s="19">
-        <f t="shared" si="2"/>
-        <v>1.89375E-3</v>
-      </c>
-      <c r="BD5" s="28">
         <v>0.31087500000000001</v>
       </c>
-      <c r="BE5" s="19">
-        <f t="shared" si="3"/>
-        <v>2.4870000000000003E-2</v>
-      </c>
+      <c r="AZ5" s="24"/>
+      <c r="BA5" s="24"/>
+      <c r="BB5" s="24"/>
+      <c r="BC5" s="24"/>
+      <c r="BD5" s="24"/>
+      <c r="BE5" s="24"/>
       <c r="BF5" s="24"/>
       <c r="BG5" s="24"/>
       <c r="BH5" s="24"/>
       <c r="BI5" s="24"/>
       <c r="BJ5" s="24"/>
       <c r="BK5" s="24"/>
-      <c r="BL5" s="24"/>
-      <c r="BM5" s="24"/>
-      <c r="BN5" s="24"/>
-      <c r="BO5" s="24"/>
-      <c r="BP5" s="24"/>
-      <c r="BQ5" s="24"/>
-    </row>
-    <row r="6" spans="1:69" s="34" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:63" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B6" s="26">
         <v>42.120973829999997</v>
@@ -2010,55 +1888,55 @@
         <v>48247.102413074717</v>
       </c>
       <c r="H6" s="28">
-        <v>1</v>
+        <v>2.77</v>
       </c>
       <c r="I6" s="28">
-        <v>2.77</v>
-      </c>
-      <c r="J6" s="28">
         <v>3</v>
       </c>
-      <c r="K6" s="28">
-        <v>0</v>
-      </c>
-      <c r="L6" s="18">
+      <c r="J6" s="18">
         <v>150000</v>
       </c>
-      <c r="M6" s="19">
+      <c r="K6" s="19">
         <f t="shared" si="0"/>
         <v>15000</v>
       </c>
-      <c r="N6" s="30">
+      <c r="L6" s="30">
         <v>33.133568409361374</v>
       </c>
-      <c r="O6" s="19">
+      <c r="M6" s="19">
         <f t="shared" si="1"/>
         <v>3.3133568409361374</v>
       </c>
-      <c r="P6" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="28">
+      <c r="N6" s="31">
+        <v>0</v>
+      </c>
+      <c r="O6" s="28">
         <v>3.0875E-2</v>
       </c>
-      <c r="R6" s="32">
-        <v>0</v>
-      </c>
-      <c r="S6" s="32">
-        <v>0</v>
-      </c>
-      <c r="T6" s="28">
+      <c r="P6" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="32">
+        <v>0</v>
+      </c>
+      <c r="R6" s="28">
         <v>4.1250000000000002E-3</v>
       </c>
-      <c r="U6" s="28">
+      <c r="S6" s="28">
         <v>0.38950000000000001</v>
       </c>
-      <c r="V6" s="35">
+      <c r="T6" s="35">
         <v>55.463399780000003</v>
       </c>
-      <c r="W6" s="19">
+      <c r="U6" s="19">
         <v>10</v>
       </c>
+      <c r="V6" s="28">
+        <v>0</v>
+      </c>
+      <c r="W6" s="28">
+        <v>0</v>
+      </c>
       <c r="X6" s="28">
         <v>0</v>
       </c>
@@ -2069,116 +1947,96 @@
         <v>0</v>
       </c>
       <c r="AA6" s="28">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="28">
+        <v>3.3750000000000002E-2</v>
+      </c>
+      <c r="AB6" s="33">
         <v>0</v>
       </c>
       <c r="AC6" s="28">
+        <v>0.28749999999999998</v>
+      </c>
+      <c r="AD6" s="28">
+        <v>43.85</v>
+      </c>
+      <c r="AE6" s="28">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="28">
+        <v>3.0875E-2</v>
+      </c>
+      <c r="AG6" s="28">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="28">
+        <v>4.1250000000000002E-3</v>
+      </c>
+      <c r="AI6" s="28">
+        <v>0.38950000000000001</v>
+      </c>
+      <c r="AJ6" s="35">
+        <v>55.463399780000003</v>
+      </c>
+      <c r="AK6" s="28">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="28">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="28">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="28">
         <v>3.3750000000000002E-2</v>
       </c>
-      <c r="AD6" s="33">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="28">
+      <c r="AO6" s="28">
         <v>0.28749999999999998</v>
       </c>
-      <c r="AF6" s="28">
+      <c r="AP6" s="28">
         <v>43.85</v>
       </c>
-      <c r="AG6" s="28">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="28">
-        <v>3.0875E-2</v>
-      </c>
-      <c r="AI6" s="28">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="28">
-        <v>4.1250000000000002E-3</v>
-      </c>
-      <c r="AK6" s="28">
-        <v>0.38950000000000001</v>
-      </c>
-      <c r="AL6" s="35">
-        <v>55.463399780000003</v>
-      </c>
-      <c r="AM6" s="28">
-        <v>0</v>
-      </c>
-      <c r="AN6" s="28">
-        <v>0</v>
-      </c>
-      <c r="AO6" s="28">
-        <v>0</v>
-      </c>
-      <c r="AP6" s="28">
-        <v>3.3750000000000002E-2</v>
-      </c>
       <c r="AQ6" s="28">
-        <v>0.28749999999999998</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="AR6" s="28">
-        <v>43.85</v>
+        <v>0</v>
       </c>
       <c r="AS6" s="28">
-        <v>1.4999999999999999E-2</v>
+        <v>0.91874999999999996</v>
       </c>
       <c r="AT6" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU6" s="28">
-        <v>0.91874999999999996</v>
+        <v>33.130000000000003</v>
       </c>
       <c r="AV6" s="28">
-        <v>2</v>
+        <v>9.6500000000000002E-2</v>
       </c>
       <c r="AW6" s="28">
-        <v>33.130000000000003</v>
+        <v>0.11075</v>
       </c>
       <c r="AX6" s="28">
-        <v>0</v>
+        <v>3.7874999999999999E-2</v>
       </c>
       <c r="AY6" s="28">
-        <v>2.1150000000000002</v>
-      </c>
-      <c r="AZ6" s="28">
-        <v>9.6500000000000002E-2</v>
-      </c>
-      <c r="BA6" s="28">
-        <v>0.11075</v>
-      </c>
-      <c r="BB6" s="28">
-        <v>3.7874999999999999E-2</v>
-      </c>
-      <c r="BC6" s="19">
-        <f t="shared" si="2"/>
-        <v>1.89375E-3</v>
-      </c>
-      <c r="BD6" s="28">
         <v>0.31087500000000001</v>
       </c>
-      <c r="BE6" s="19">
-        <f t="shared" si="3"/>
-        <v>2.4870000000000003E-2</v>
-      </c>
+      <c r="AZ6" s="24"/>
+      <c r="BA6" s="24"/>
+      <c r="BB6" s="24"/>
+      <c r="BC6" s="24"/>
+      <c r="BD6" s="24"/>
+      <c r="BE6" s="24"/>
       <c r="BF6" s="24"/>
       <c r="BG6" s="24"/>
       <c r="BH6" s="24"/>
       <c r="BI6" s="24"/>
       <c r="BJ6" s="24"/>
       <c r="BK6" s="24"/>
-      <c r="BL6" s="24"/>
-      <c r="BM6" s="24"/>
-      <c r="BN6" s="24"/>
-      <c r="BO6" s="24"/>
-      <c r="BP6" s="24"/>
-      <c r="BQ6" s="24"/>
-    </row>
-    <row r="7" spans="1:69" s="34" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:63" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B7" s="26">
         <v>42.120764999999999</v>
@@ -2199,55 +2057,55 @@
         <v>27990.969798056703</v>
       </c>
       <c r="H7" s="28">
-        <v>1</v>
+        <v>2.77</v>
       </c>
       <c r="I7" s="28">
-        <v>2.77</v>
-      </c>
-      <c r="J7" s="28">
         <v>3</v>
       </c>
-      <c r="K7" s="28">
-        <v>0</v>
-      </c>
-      <c r="L7" s="18">
+      <c r="J7" s="18">
         <v>150000</v>
       </c>
-      <c r="M7" s="19">
+      <c r="K7" s="19">
         <f t="shared" si="0"/>
         <v>15000</v>
       </c>
-      <c r="N7" s="30">
+      <c r="L7" s="30">
         <v>29.303798838357373</v>
       </c>
-      <c r="O7" s="19">
+      <c r="M7" s="19">
         <f t="shared" si="1"/>
         <v>2.9303798838357373</v>
       </c>
-      <c r="P7" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="28">
+      <c r="N7" s="31">
+        <v>0</v>
+      </c>
+      <c r="O7" s="28">
         <v>3.0875E-2</v>
       </c>
-      <c r="R7" s="32">
-        <v>0</v>
-      </c>
-      <c r="S7" s="32">
-        <v>0</v>
-      </c>
-      <c r="T7" s="28">
+      <c r="P7" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="32">
+        <v>0</v>
+      </c>
+      <c r="R7" s="28">
         <v>4.1250000000000002E-3</v>
       </c>
-      <c r="U7" s="28">
+      <c r="S7" s="28">
         <v>0.38950000000000001</v>
       </c>
-      <c r="V7" s="35">
+      <c r="T7" s="35">
         <v>54.506630000000008</v>
       </c>
-      <c r="W7" s="19">
+      <c r="U7" s="19">
         <v>10</v>
       </c>
+      <c r="V7" s="28">
+        <v>0</v>
+      </c>
+      <c r="W7" s="28">
+        <v>0</v>
+      </c>
       <c r="X7" s="28">
         <v>0</v>
       </c>
@@ -2258,116 +2116,96 @@
         <v>0</v>
       </c>
       <c r="AA7" s="28">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="28">
+        <v>3.3750000000000002E-2</v>
+      </c>
+      <c r="AB7" s="33">
         <v>0</v>
       </c>
       <c r="AC7" s="28">
+        <v>0.28749999999999998</v>
+      </c>
+      <c r="AD7" s="28">
+        <v>43.85</v>
+      </c>
+      <c r="AE7" s="28">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="28">
+        <v>3.0875E-2</v>
+      </c>
+      <c r="AG7" s="28">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="28">
+        <v>4.1250000000000002E-3</v>
+      </c>
+      <c r="AI7" s="28">
+        <v>0.38950000000000001</v>
+      </c>
+      <c r="AJ7" s="35">
+        <v>54.506630000000008</v>
+      </c>
+      <c r="AK7" s="28">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="28">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="28">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="28">
         <v>3.3750000000000002E-2</v>
       </c>
-      <c r="AD7" s="33">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="28">
+      <c r="AO7" s="28">
         <v>0.28749999999999998</v>
       </c>
-      <c r="AF7" s="28">
+      <c r="AP7" s="28">
         <v>43.85</v>
       </c>
-      <c r="AG7" s="28">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="28">
-        <v>3.0875E-2</v>
-      </c>
-      <c r="AI7" s="28">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="28">
-        <v>4.1250000000000002E-3</v>
-      </c>
-      <c r="AK7" s="28">
-        <v>0.38950000000000001</v>
-      </c>
-      <c r="AL7" s="35">
-        <v>54.506630000000008</v>
-      </c>
-      <c r="AM7" s="28">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="28">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="28">
-        <v>0</v>
-      </c>
-      <c r="AP7" s="28">
-        <v>3.3750000000000002E-2</v>
-      </c>
       <c r="AQ7" s="28">
-        <v>0.28749999999999998</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="AR7" s="28">
-        <v>43.85</v>
+        <v>0</v>
       </c>
       <c r="AS7" s="28">
-        <v>1.4999999999999999E-2</v>
+        <v>0.91874999999999996</v>
       </c>
       <c r="AT7" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU7" s="28">
-        <v>0.91874999999999996</v>
+        <v>29.3</v>
       </c>
       <c r="AV7" s="28">
-        <v>2</v>
+        <v>9.6500000000000002E-2</v>
       </c>
       <c r="AW7" s="28">
-        <v>29.3</v>
+        <v>0.11075</v>
       </c>
       <c r="AX7" s="28">
-        <v>0</v>
+        <v>3.7874999999999999E-2</v>
       </c>
       <c r="AY7" s="28">
-        <v>2.1150000000000002</v>
-      </c>
-      <c r="AZ7" s="28">
-        <v>9.6500000000000002E-2</v>
-      </c>
-      <c r="BA7" s="28">
-        <v>0.11075</v>
-      </c>
-      <c r="BB7" s="28">
-        <v>3.7874999999999999E-2</v>
-      </c>
-      <c r="BC7" s="19">
-        <f t="shared" si="2"/>
-        <v>1.89375E-3</v>
-      </c>
-      <c r="BD7" s="28">
         <v>0.31087500000000001</v>
       </c>
-      <c r="BE7" s="19">
-        <f t="shared" si="3"/>
-        <v>2.4870000000000003E-2</v>
-      </c>
+      <c r="AZ7" s="24"/>
+      <c r="BA7" s="24"/>
+      <c r="BB7" s="24"/>
+      <c r="BC7" s="24"/>
+      <c r="BD7" s="24"/>
+      <c r="BE7" s="24"/>
       <c r="BF7" s="24"/>
       <c r="BG7" s="24"/>
       <c r="BH7" s="24"/>
       <c r="BI7" s="24"/>
       <c r="BJ7" s="24"/>
       <c r="BK7" s="24"/>
-      <c r="BL7" s="24"/>
-      <c r="BM7" s="24"/>
-      <c r="BN7" s="24"/>
-      <c r="BO7" s="24"/>
-      <c r="BP7" s="24"/>
-      <c r="BQ7" s="24"/>
-    </row>
-    <row r="8" spans="1:69" s="34" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:63" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B8" s="26">
         <v>42.120481329999997</v>
@@ -2388,55 +2226,55 @@
         <v>38104.956886863692</v>
       </c>
       <c r="H8" s="28">
-        <v>1</v>
+        <v>2.77</v>
       </c>
       <c r="I8" s="28">
-        <v>2.77</v>
-      </c>
-      <c r="J8" s="28">
         <v>3.5</v>
       </c>
-      <c r="K8" s="28">
-        <v>0</v>
-      </c>
-      <c r="L8" s="18">
+      <c r="J8" s="18">
         <v>150000</v>
       </c>
-      <c r="M8" s="19">
+      <c r="K8" s="19">
         <f t="shared" si="0"/>
         <v>15000</v>
       </c>
-      <c r="N8" s="30">
+      <c r="L8" s="30">
         <v>16.609038607384811</v>
       </c>
-      <c r="O8" s="19">
+      <c r="M8" s="19">
         <f t="shared" si="1"/>
         <v>1.6609038607384812</v>
       </c>
-      <c r="P8" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="28">
+      <c r="N8" s="31">
+        <v>0</v>
+      </c>
+      <c r="O8" s="28">
         <v>3.0875E-2</v>
       </c>
-      <c r="R8" s="32">
-        <v>0</v>
-      </c>
-      <c r="S8" s="32">
-        <v>0</v>
-      </c>
-      <c r="T8" s="28">
+      <c r="P8" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="32">
+        <v>0</v>
+      </c>
+      <c r="R8" s="28">
         <v>4.1250000000000002E-3</v>
       </c>
-      <c r="U8" s="28">
+      <c r="S8" s="28">
         <v>0.38950000000000001</v>
       </c>
-      <c r="V8" s="35">
+      <c r="T8" s="35">
         <v>55.843056999999995</v>
       </c>
-      <c r="W8" s="19">
+      <c r="U8" s="19">
         <v>10</v>
       </c>
+      <c r="V8" s="28">
+        <v>0</v>
+      </c>
+      <c r="W8" s="28">
+        <v>0</v>
+      </c>
       <c r="X8" s="28">
         <v>0</v>
       </c>
@@ -2447,116 +2285,96 @@
         <v>0</v>
       </c>
       <c r="AA8" s="28">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="28">
+        <v>3.3750000000000002E-2</v>
+      </c>
+      <c r="AB8" s="33">
         <v>0</v>
       </c>
       <c r="AC8" s="28">
+        <v>0.28749999999999998</v>
+      </c>
+      <c r="AD8" s="28">
+        <v>43.85</v>
+      </c>
+      <c r="AE8" s="28">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="28">
+        <v>3.0875E-2</v>
+      </c>
+      <c r="AG8" s="28">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="28">
+        <v>4.1250000000000002E-3</v>
+      </c>
+      <c r="AI8" s="28">
+        <v>0.38950000000000001</v>
+      </c>
+      <c r="AJ8" s="35">
+        <v>55.843056999999995</v>
+      </c>
+      <c r="AK8" s="28">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="28">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="28">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="28">
         <v>3.3750000000000002E-2</v>
       </c>
-      <c r="AD8" s="33">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="28">
+      <c r="AO8" s="28">
         <v>0.28749999999999998</v>
       </c>
-      <c r="AF8" s="28">
+      <c r="AP8" s="28">
         <v>43.85</v>
       </c>
-      <c r="AG8" s="28">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="28">
-        <v>3.0875E-2</v>
-      </c>
-      <c r="AI8" s="28">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="28">
-        <v>4.1250000000000002E-3</v>
-      </c>
-      <c r="AK8" s="28">
-        <v>0.38950000000000001</v>
-      </c>
-      <c r="AL8" s="35">
-        <v>55.843056999999995</v>
-      </c>
-      <c r="AM8" s="28">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="28">
-        <v>0</v>
-      </c>
-      <c r="AO8" s="28">
-        <v>0</v>
-      </c>
-      <c r="AP8" s="28">
-        <v>3.3750000000000002E-2</v>
-      </c>
       <c r="AQ8" s="28">
-        <v>0.28749999999999998</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="AR8" s="28">
-        <v>43.85</v>
+        <v>0</v>
       </c>
       <c r="AS8" s="28">
-        <v>1.4999999999999999E-2</v>
+        <v>0.91874999999999996</v>
       </c>
       <c r="AT8" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU8" s="28">
-        <v>0.91874999999999996</v>
+        <v>16.61</v>
       </c>
       <c r="AV8" s="28">
-        <v>2</v>
+        <v>9.6500000000000002E-2</v>
       </c>
       <c r="AW8" s="28">
-        <v>16.61</v>
+        <v>0.11075</v>
       </c>
       <c r="AX8" s="28">
-        <v>0</v>
+        <v>3.7874999999999999E-2</v>
       </c>
       <c r="AY8" s="28">
-        <v>2.1150000000000002</v>
-      </c>
-      <c r="AZ8" s="28">
-        <v>9.6500000000000002E-2</v>
-      </c>
-      <c r="BA8" s="28">
-        <v>0.11075</v>
-      </c>
-      <c r="BB8" s="28">
-        <v>3.7874999999999999E-2</v>
-      </c>
-      <c r="BC8" s="19">
-        <f t="shared" si="2"/>
-        <v>1.89375E-3</v>
-      </c>
-      <c r="BD8" s="28">
         <v>0.31087500000000001</v>
       </c>
-      <c r="BE8" s="19">
-        <f t="shared" si="3"/>
-        <v>2.4870000000000003E-2</v>
-      </c>
+      <c r="AZ8" s="24"/>
+      <c r="BA8" s="24"/>
+      <c r="BB8" s="24"/>
+      <c r="BC8" s="24"/>
+      <c r="BD8" s="24"/>
+      <c r="BE8" s="24"/>
       <c r="BF8" s="24"/>
       <c r="BG8" s="24"/>
       <c r="BH8" s="24"/>
       <c r="BI8" s="24"/>
       <c r="BJ8" s="24"/>
       <c r="BK8" s="24"/>
-      <c r="BL8" s="24"/>
-      <c r="BM8" s="24"/>
-      <c r="BN8" s="24"/>
-      <c r="BO8" s="24"/>
-      <c r="BP8" s="24"/>
-      <c r="BQ8" s="24"/>
-    </row>
-    <row r="9" spans="1:69" s="34" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:63" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="26" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B9" s="26">
         <v>42.120266829999998</v>
@@ -2577,55 +2395,55 @@
         <v>55791.310828220521</v>
       </c>
       <c r="H9" s="28">
-        <v>1</v>
+        <v>2.77</v>
       </c>
       <c r="I9" s="28">
-        <v>2.77</v>
-      </c>
-      <c r="J9" s="28">
         <v>2.5</v>
       </c>
-      <c r="K9" s="28">
-        <v>0</v>
-      </c>
-      <c r="L9" s="18">
+      <c r="J9" s="18">
         <v>150000</v>
       </c>
-      <c r="M9" s="19">
+      <c r="K9" s="19">
         <f t="shared" si="0"/>
         <v>15000</v>
       </c>
-      <c r="N9" s="30">
+      <c r="L9" s="30">
         <v>7.2603794329003106</v>
       </c>
-      <c r="O9" s="19">
+      <c r="M9" s="19">
         <f t="shared" si="1"/>
         <v>0.72603794329003113</v>
       </c>
-      <c r="P9" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="28">
+      <c r="N9" s="31">
+        <v>0</v>
+      </c>
+      <c r="O9" s="28">
         <v>3.0875E-2</v>
       </c>
-      <c r="R9" s="32">
-        <v>0</v>
-      </c>
-      <c r="S9" s="32">
-        <v>0</v>
-      </c>
-      <c r="T9" s="28">
+      <c r="P9" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="32">
+        <v>0</v>
+      </c>
+      <c r="R9" s="28">
         <v>4.1250000000000002E-3</v>
       </c>
-      <c r="U9" s="28">
+      <c r="S9" s="28">
         <v>0.38950000000000001</v>
       </c>
-      <c r="V9" s="35">
+      <c r="T9" s="35">
         <v>52.561883820000006</v>
       </c>
-      <c r="W9" s="19">
+      <c r="U9" s="19">
         <v>10</v>
       </c>
+      <c r="V9" s="28">
+        <v>0</v>
+      </c>
+      <c r="W9" s="28">
+        <v>0</v>
+      </c>
       <c r="X9" s="28">
         <v>0</v>
       </c>
@@ -2636,116 +2454,96 @@
         <v>0</v>
       </c>
       <c r="AA9" s="28">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="28">
+        <v>3.3750000000000002E-2</v>
+      </c>
+      <c r="AB9" s="33">
         <v>0</v>
       </c>
       <c r="AC9" s="28">
+        <v>0.28749999999999998</v>
+      </c>
+      <c r="AD9" s="28">
+        <v>43.85</v>
+      </c>
+      <c r="AE9" s="28">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="28">
+        <v>3.0875E-2</v>
+      </c>
+      <c r="AG9" s="28">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="28">
+        <v>4.1250000000000002E-3</v>
+      </c>
+      <c r="AI9" s="28">
+        <v>0.38950000000000001</v>
+      </c>
+      <c r="AJ9" s="35">
+        <v>52.561883820000006</v>
+      </c>
+      <c r="AK9" s="28">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="28">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="28">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="28">
         <v>3.3750000000000002E-2</v>
       </c>
-      <c r="AD9" s="33">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="28">
+      <c r="AO9" s="28">
         <v>0.28749999999999998</v>
       </c>
-      <c r="AF9" s="28">
+      <c r="AP9" s="28">
         <v>43.85</v>
       </c>
-      <c r="AG9" s="28">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="28">
-        <v>3.0875E-2</v>
-      </c>
-      <c r="AI9" s="28">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="28">
-        <v>4.1250000000000002E-3</v>
-      </c>
-      <c r="AK9" s="28">
-        <v>0.38950000000000001</v>
-      </c>
-      <c r="AL9" s="35">
-        <v>52.561883820000006</v>
-      </c>
-      <c r="AM9" s="28">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="28">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="28">
-        <v>0</v>
-      </c>
-      <c r="AP9" s="28">
-        <v>3.3750000000000002E-2</v>
-      </c>
       <c r="AQ9" s="28">
-        <v>0.28749999999999998</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="AR9" s="28">
-        <v>43.85</v>
+        <v>0</v>
       </c>
       <c r="AS9" s="28">
-        <v>1.4999999999999999E-2</v>
+        <v>0.91874999999999996</v>
       </c>
       <c r="AT9" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU9" s="28">
-        <v>0.91874999999999996</v>
+        <v>7.26</v>
       </c>
       <c r="AV9" s="28">
-        <v>2</v>
+        <v>9.6500000000000002E-2</v>
       </c>
       <c r="AW9" s="28">
-        <v>7.26</v>
+        <v>0.11075</v>
       </c>
       <c r="AX9" s="28">
-        <v>0</v>
+        <v>3.7874999999999999E-2</v>
       </c>
       <c r="AY9" s="28">
-        <v>2.1150000000000002</v>
-      </c>
-      <c r="AZ9" s="28">
-        <v>9.6500000000000002E-2</v>
-      </c>
-      <c r="BA9" s="28">
-        <v>0.11075</v>
-      </c>
-      <c r="BB9" s="28">
-        <v>3.7874999999999999E-2</v>
-      </c>
-      <c r="BC9" s="19">
-        <f t="shared" si="2"/>
-        <v>1.89375E-3</v>
-      </c>
-      <c r="BD9" s="28">
         <v>0.31087500000000001</v>
       </c>
-      <c r="BE9" s="19">
-        <f t="shared" si="3"/>
-        <v>2.4870000000000003E-2</v>
-      </c>
+      <c r="AZ9" s="24"/>
+      <c r="BA9" s="24"/>
+      <c r="BB9" s="24"/>
+      <c r="BC9" s="24"/>
+      <c r="BD9" s="24"/>
+      <c r="BE9" s="24"/>
       <c r="BF9" s="24"/>
       <c r="BG9" s="24"/>
       <c r="BH9" s="24"/>
       <c r="BI9" s="24"/>
       <c r="BJ9" s="24"/>
       <c r="BK9" s="24"/>
-      <c r="BL9" s="24"/>
-      <c r="BM9" s="24"/>
-      <c r="BN9" s="24"/>
-      <c r="BO9" s="24"/>
-      <c r="BP9" s="24"/>
-      <c r="BQ9" s="24"/>
-    </row>
-    <row r="10" spans="1:69" s="34" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:63" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B10" s="26">
         <v>42.120550000000001</v>
@@ -2766,55 +2564,55 @@
         <v>31476.658801518013</v>
       </c>
       <c r="H10" s="28">
-        <v>1</v>
+        <v>2.77</v>
       </c>
       <c r="I10" s="28">
-        <v>2.77</v>
-      </c>
-      <c r="J10" s="28">
         <v>2.8</v>
       </c>
-      <c r="K10" s="28">
-        <v>0</v>
-      </c>
-      <c r="L10" s="18">
+      <c r="J10" s="18">
         <v>150000</v>
       </c>
-      <c r="M10" s="19">
+      <c r="K10" s="19">
         <f t="shared" si="0"/>
         <v>15000</v>
       </c>
-      <c r="N10" s="30">
+      <c r="L10" s="30">
         <v>4.6395206538334914</v>
       </c>
-      <c r="O10" s="19">
+      <c r="M10" s="19">
         <f t="shared" si="1"/>
         <v>0.46395206538334915</v>
       </c>
-      <c r="P10" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="28">
+      <c r="N10" s="31">
+        <v>0</v>
+      </c>
+      <c r="O10" s="28">
         <v>3.0875E-2</v>
       </c>
-      <c r="R10" s="32">
-        <v>0</v>
-      </c>
-      <c r="S10" s="32">
-        <v>0</v>
-      </c>
-      <c r="T10" s="28">
+      <c r="P10" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="32">
+        <v>0</v>
+      </c>
+      <c r="R10" s="28">
         <v>4.1250000000000002E-3</v>
       </c>
-      <c r="U10" s="28">
+      <c r="S10" s="28">
         <v>0.38950000000000001</v>
       </c>
-      <c r="V10" s="35">
+      <c r="T10" s="35">
         <v>52.402911979999999</v>
       </c>
-      <c r="W10" s="19">
+      <c r="U10" s="19">
         <v>10</v>
       </c>
+      <c r="V10" s="28">
+        <v>0</v>
+      </c>
+      <c r="W10" s="28">
+        <v>0</v>
+      </c>
       <c r="X10" s="28">
         <v>0</v>
       </c>
@@ -2825,116 +2623,96 @@
         <v>0</v>
       </c>
       <c r="AA10" s="28">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="28">
+        <v>3.3750000000000002E-2</v>
+      </c>
+      <c r="AB10" s="33">
         <v>0</v>
       </c>
       <c r="AC10" s="28">
+        <v>0.28749999999999998</v>
+      </c>
+      <c r="AD10" s="28">
+        <v>43.85</v>
+      </c>
+      <c r="AE10" s="28">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="28">
+        <v>3.0875E-2</v>
+      </c>
+      <c r="AG10" s="28">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="28">
+        <v>4.1250000000000002E-3</v>
+      </c>
+      <c r="AI10" s="28">
+        <v>0.38950000000000001</v>
+      </c>
+      <c r="AJ10" s="35">
+        <v>52.402911979999999</v>
+      </c>
+      <c r="AK10" s="28">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="28">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="28">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="28">
         <v>3.3750000000000002E-2</v>
       </c>
-      <c r="AD10" s="33">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="28">
+      <c r="AO10" s="28">
         <v>0.28749999999999998</v>
       </c>
-      <c r="AF10" s="28">
+      <c r="AP10" s="28">
         <v>43.85</v>
       </c>
-      <c r="AG10" s="28">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="28">
-        <v>3.0875E-2</v>
-      </c>
-      <c r="AI10" s="28">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="28">
-        <v>4.1250000000000002E-3</v>
-      </c>
-      <c r="AK10" s="28">
-        <v>0.38950000000000001</v>
-      </c>
-      <c r="AL10" s="35">
-        <v>52.402911979999999</v>
-      </c>
-      <c r="AM10" s="28">
-        <v>0</v>
-      </c>
-      <c r="AN10" s="28">
-        <v>0</v>
-      </c>
-      <c r="AO10" s="28">
-        <v>0</v>
-      </c>
-      <c r="AP10" s="28">
-        <v>3.3750000000000002E-2</v>
-      </c>
       <c r="AQ10" s="28">
-        <v>0.28749999999999998</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="AR10" s="28">
-        <v>43.85</v>
+        <v>0</v>
       </c>
       <c r="AS10" s="28">
-        <v>1.4999999999999999E-2</v>
+        <v>0.91874999999999996</v>
       </c>
       <c r="AT10" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU10" s="28">
-        <v>0.91874999999999996</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="AV10" s="28">
-        <v>2</v>
+        <v>9.6500000000000002E-2</v>
       </c>
       <c r="AW10" s="28">
-        <v>4.6399999999999997</v>
+        <v>0.11075</v>
       </c>
       <c r="AX10" s="28">
-        <v>0</v>
+        <v>3.7874999999999999E-2</v>
       </c>
       <c r="AY10" s="28">
-        <v>2.1150000000000002</v>
-      </c>
-      <c r="AZ10" s="28">
-        <v>9.6500000000000002E-2</v>
-      </c>
-      <c r="BA10" s="28">
-        <v>0.11075</v>
-      </c>
-      <c r="BB10" s="28">
-        <v>3.7874999999999999E-2</v>
-      </c>
-      <c r="BC10" s="19">
-        <f t="shared" si="2"/>
-        <v>1.89375E-3</v>
-      </c>
-      <c r="BD10" s="28">
         <v>0.31087500000000001</v>
       </c>
-      <c r="BE10" s="19">
-        <f t="shared" si="3"/>
-        <v>2.4870000000000003E-2</v>
-      </c>
+      <c r="AZ10" s="24"/>
+      <c r="BA10" s="24"/>
+      <c r="BB10" s="24"/>
+      <c r="BC10" s="24"/>
+      <c r="BD10" s="24"/>
+      <c r="BE10" s="24"/>
       <c r="BF10" s="24"/>
       <c r="BG10" s="24"/>
       <c r="BH10" s="24"/>
       <c r="BI10" s="24"/>
       <c r="BJ10" s="24"/>
       <c r="BK10" s="24"/>
-      <c r="BL10" s="24"/>
-      <c r="BM10" s="24"/>
-      <c r="BN10" s="24"/>
-      <c r="BO10" s="24"/>
-      <c r="BP10" s="24"/>
-      <c r="BQ10" s="24"/>
-    </row>
-    <row r="11" spans="1:69" s="34" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:63" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="26" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B11" s="26">
         <v>42.119845669999997</v>
@@ -2955,55 +2733,55 @@
         <v>39002.447802817966</v>
       </c>
       <c r="H11" s="28">
-        <v>1</v>
+        <v>2.77</v>
       </c>
       <c r="I11" s="28">
-        <v>2.77</v>
-      </c>
-      <c r="J11" s="28">
         <v>2</v>
       </c>
-      <c r="K11" s="28">
-        <v>0</v>
-      </c>
-      <c r="L11" s="18">
+      <c r="J11" s="18">
         <v>150000</v>
       </c>
-      <c r="M11" s="19">
+      <c r="K11" s="19">
         <f t="shared" si="0"/>
         <v>15000</v>
       </c>
-      <c r="N11" s="30">
+      <c r="L11" s="30">
         <v>43.085068527084701</v>
       </c>
-      <c r="O11" s="19">
+      <c r="M11" s="19">
         <f t="shared" si="1"/>
         <v>4.3085068527084704</v>
       </c>
-      <c r="P11" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="28">
+      <c r="N11" s="31">
+        <v>0</v>
+      </c>
+      <c r="O11" s="28">
         <v>3.0875E-2</v>
       </c>
-      <c r="R11" s="32">
-        <v>0</v>
-      </c>
-      <c r="S11" s="32">
-        <v>0</v>
-      </c>
-      <c r="T11" s="28">
+      <c r="P11" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="32">
+        <v>0</v>
+      </c>
+      <c r="R11" s="28">
         <v>4.1250000000000002E-3</v>
       </c>
-      <c r="U11" s="28">
+      <c r="S11" s="28">
         <v>0.38950000000000001</v>
       </c>
-      <c r="V11" s="35">
+      <c r="T11" s="35">
         <v>53.683223040000001</v>
       </c>
-      <c r="W11" s="19">
+      <c r="U11" s="19">
         <v>10</v>
       </c>
+      <c r="V11" s="28">
+        <v>0</v>
+      </c>
+      <c r="W11" s="28">
+        <v>0</v>
+      </c>
       <c r="X11" s="28">
         <v>0</v>
       </c>
@@ -3014,114 +2792,94 @@
         <v>0</v>
       </c>
       <c r="AA11" s="28">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="28">
+        <v>3.3750000000000002E-2</v>
+      </c>
+      <c r="AB11" s="33">
         <v>0</v>
       </c>
       <c r="AC11" s="28">
+        <v>0.28749999999999998</v>
+      </c>
+      <c r="AD11" s="28">
+        <v>43.85</v>
+      </c>
+      <c r="AE11" s="28">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="28">
+        <v>3.0875E-2</v>
+      </c>
+      <c r="AG11" s="28">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="28">
+        <v>4.1250000000000002E-3</v>
+      </c>
+      <c r="AI11" s="28">
+        <v>0.38950000000000001</v>
+      </c>
+      <c r="AJ11" s="35">
+        <v>53.683223040000001</v>
+      </c>
+      <c r="AK11" s="28">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="28">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="28">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="28">
         <v>3.3750000000000002E-2</v>
       </c>
-      <c r="AD11" s="33">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="28">
+      <c r="AO11" s="28">
         <v>0.28749999999999998</v>
       </c>
-      <c r="AF11" s="28">
+      <c r="AP11" s="28">
         <v>43.85</v>
       </c>
-      <c r="AG11" s="28">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="28">
-        <v>3.0875E-2</v>
-      </c>
-      <c r="AI11" s="28">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="28">
-        <v>4.1250000000000002E-3</v>
-      </c>
-      <c r="AK11" s="28">
-        <v>0.38950000000000001</v>
-      </c>
-      <c r="AL11" s="35">
-        <v>53.683223040000001</v>
-      </c>
-      <c r="AM11" s="28">
-        <v>0</v>
-      </c>
-      <c r="AN11" s="28">
-        <v>0</v>
-      </c>
-      <c r="AO11" s="28">
-        <v>0</v>
-      </c>
-      <c r="AP11" s="28">
-        <v>3.3750000000000002E-2</v>
-      </c>
       <c r="AQ11" s="28">
-        <v>0.28749999999999998</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="AR11" s="28">
-        <v>43.85</v>
+        <v>0</v>
       </c>
       <c r="AS11" s="28">
-        <v>1.4999999999999999E-2</v>
+        <v>0.91874999999999996</v>
       </c>
       <c r="AT11" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU11" s="28">
-        <v>0.91874999999999996</v>
+        <v>43.09</v>
       </c>
       <c r="AV11" s="28">
-        <v>2</v>
+        <v>9.6500000000000002E-2</v>
       </c>
       <c r="AW11" s="28">
-        <v>43.09</v>
+        <v>0.11075</v>
       </c>
       <c r="AX11" s="28">
-        <v>0</v>
+        <v>3.7874999999999999E-2</v>
       </c>
       <c r="AY11" s="28">
-        <v>2.1150000000000002</v>
-      </c>
-      <c r="AZ11" s="28">
-        <v>9.6500000000000002E-2</v>
-      </c>
-      <c r="BA11" s="28">
-        <v>0.11075</v>
-      </c>
-      <c r="BB11" s="28">
-        <v>3.7874999999999999E-2</v>
-      </c>
-      <c r="BC11" s="19">
-        <f t="shared" si="2"/>
-        <v>1.89375E-3</v>
-      </c>
-      <c r="BD11" s="28">
         <v>0.31087500000000001</v>
       </c>
-      <c r="BE11" s="19">
-        <f t="shared" si="3"/>
-        <v>2.4870000000000003E-2</v>
-      </c>
+      <c r="AZ11" s="24"/>
+      <c r="BA11" s="24"/>
+      <c r="BB11" s="24"/>
+      <c r="BC11" s="24"/>
+      <c r="BD11" s="24"/>
+      <c r="BE11" s="24"/>
       <c r="BF11" s="24"/>
       <c r="BG11" s="24"/>
       <c r="BH11" s="24"/>
       <c r="BI11" s="24"/>
       <c r="BJ11" s="24"/>
       <c r="BK11" s="24"/>
-      <c r="BL11" s="24"/>
-      <c r="BM11" s="24"/>
-      <c r="BN11" s="24"/>
-      <c r="BO11" s="24"/>
-      <c r="BP11" s="24"/>
-      <c r="BQ11" s="24"/>
-    </row>
-    <row r="12" spans="1:69" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:63" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="20"/>
       <c r="B12" s="20"/>
       <c r="C12" s="20"/>
@@ -3131,56 +2889,50 @@
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
+      <c r="J12" s="21"/>
       <c r="K12" s="20"/>
       <c r="L12" s="21"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="21"/>
       <c r="Q12" s="20"/>
-      <c r="R12" s="21"/>
+      <c r="R12" s="20"/>
       <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
+      <c r="T12" s="21"/>
       <c r="U12" s="20"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="21"/>
       <c r="X12" s="20"/>
       <c r="Y12" s="21"/>
-      <c r="Z12" s="20"/>
-      <c r="AA12" s="21"/>
+      <c r="Z12" s="22"/>
+      <c r="AA12" s="22"/>
       <c r="AB12" s="22"/>
       <c r="AC12" s="22"/>
-      <c r="AD12" s="22"/>
-      <c r="AE12" s="22"/>
-      <c r="AF12" s="38"/>
-      <c r="AG12" s="38"/>
-      <c r="AH12" s="38"/>
-      <c r="AI12" s="38"/>
-      <c r="AJ12" s="38"/>
-      <c r="AK12" s="38"/>
-      <c r="AL12" s="38"/>
-      <c r="AM12" s="38"/>
-      <c r="AN12" s="38"/>
-      <c r="AO12" s="38"/>
-      <c r="AP12" s="38"/>
-      <c r="AQ12" s="38"/>
-      <c r="AR12" s="38"/>
-      <c r="AS12" s="38"/>
+      <c r="AD12" s="37"/>
+      <c r="AE12" s="37"/>
+      <c r="AF12" s="37"/>
+      <c r="AG12" s="37"/>
+      <c r="AH12" s="37"/>
+      <c r="AI12" s="37"/>
+      <c r="AJ12" s="37"/>
+      <c r="AK12" s="37"/>
+      <c r="AL12" s="37"/>
+      <c r="AM12" s="37"/>
+      <c r="AN12" s="37"/>
+      <c r="AO12" s="37"/>
+      <c r="AP12" s="37"/>
+      <c r="AQ12" s="37"/>
+      <c r="AR12" s="20"/>
+      <c r="AS12" s="20"/>
       <c r="AT12" s="20"/>
-      <c r="AU12" s="20"/>
+      <c r="AU12" s="38"/>
       <c r="AV12" s="20"/>
-      <c r="AW12" s="39"/>
-      <c r="AX12" s="39"/>
-      <c r="AY12" s="20"/>
-      <c r="AZ12" s="20"/>
-      <c r="BA12" s="20"/>
-      <c r="BB12" s="21"/>
-      <c r="BC12" s="20"/>
-      <c r="BD12" s="21"/>
-      <c r="BE12" s="20"/>
-    </row>
-    <row r="13" spans="1:69" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AW12" s="20"/>
+      <c r="AX12" s="21"/>
+      <c r="AY12" s="21"/>
+    </row>
+    <row r="13" spans="1:63" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="20"/>
       <c r="B13" s="20"/>
       <c r="C13" s="20"/>
@@ -3190,56 +2942,50 @@
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>
       <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
+      <c r="J13" s="21"/>
       <c r="K13" s="20"/>
       <c r="L13" s="21"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="21"/>
       <c r="Q13" s="20"/>
-      <c r="R13" s="21"/>
+      <c r="R13" s="20"/>
       <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
+      <c r="T13" s="21"/>
       <c r="U13" s="20"/>
-      <c r="V13" s="21"/>
-      <c r="W13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="21"/>
       <c r="X13" s="20"/>
       <c r="Y13" s="21"/>
-      <c r="Z13" s="20"/>
-      <c r="AA13" s="21"/>
+      <c r="Z13" s="22"/>
+      <c r="AA13" s="22"/>
       <c r="AB13" s="22"/>
       <c r="AC13" s="22"/>
-      <c r="AD13" s="22"/>
-      <c r="AE13" s="22"/>
-      <c r="AF13" s="38"/>
-      <c r="AG13" s="38"/>
-      <c r="AH13" s="38"/>
-      <c r="AI13" s="38"/>
-      <c r="AJ13" s="38"/>
-      <c r="AK13" s="38"/>
-      <c r="AL13" s="38"/>
-      <c r="AM13" s="38"/>
-      <c r="AN13" s="38"/>
-      <c r="AO13" s="38"/>
-      <c r="AP13" s="38"/>
-      <c r="AQ13" s="38"/>
-      <c r="AR13" s="38"/>
-      <c r="AS13" s="38"/>
+      <c r="AD13" s="37"/>
+      <c r="AE13" s="37"/>
+      <c r="AF13" s="37"/>
+      <c r="AG13" s="37"/>
+      <c r="AH13" s="37"/>
+      <c r="AI13" s="37"/>
+      <c r="AJ13" s="37"/>
+      <c r="AK13" s="37"/>
+      <c r="AL13" s="37"/>
+      <c r="AM13" s="37"/>
+      <c r="AN13" s="37"/>
+      <c r="AO13" s="37"/>
+      <c r="AP13" s="37"/>
+      <c r="AQ13" s="37"/>
+      <c r="AR13" s="20"/>
+      <c r="AS13" s="20"/>
       <c r="AT13" s="20"/>
-      <c r="AU13" s="20"/>
+      <c r="AU13" s="38"/>
       <c r="AV13" s="20"/>
-      <c r="AW13" s="39"/>
-      <c r="AX13" s="39"/>
-      <c r="AY13" s="20"/>
-      <c r="AZ13" s="20"/>
-      <c r="BA13" s="20"/>
-      <c r="BB13" s="21"/>
-      <c r="BC13" s="20"/>
-      <c r="BD13" s="21"/>
-      <c r="BE13" s="20"/>
-    </row>
-    <row r="14" spans="1:69" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AW13" s="20"/>
+      <c r="AX13" s="21"/>
+      <c r="AY13" s="21"/>
+    </row>
+    <row r="14" spans="1:63" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="20"/>
       <c r="B14" s="20"/>
       <c r="C14" s="20"/>
@@ -3249,56 +2995,50 @@
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
+      <c r="J14" s="21"/>
       <c r="K14" s="20"/>
       <c r="L14" s="21"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="21"/>
       <c r="Q14" s="20"/>
-      <c r="R14" s="21"/>
+      <c r="R14" s="20"/>
       <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
+      <c r="T14" s="21"/>
       <c r="U14" s="20"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="21"/>
       <c r="X14" s="20"/>
       <c r="Y14" s="21"/>
-      <c r="Z14" s="20"/>
-      <c r="AA14" s="21"/>
+      <c r="Z14" s="22"/>
+      <c r="AA14" s="22"/>
       <c r="AB14" s="22"/>
       <c r="AC14" s="22"/>
-      <c r="AD14" s="22"/>
-      <c r="AE14" s="22"/>
-      <c r="AF14" s="38"/>
-      <c r="AG14" s="38"/>
-      <c r="AH14" s="38"/>
-      <c r="AI14" s="38"/>
-      <c r="AJ14" s="38"/>
-      <c r="AK14" s="38"/>
-      <c r="AL14" s="38"/>
-      <c r="AM14" s="38"/>
-      <c r="AN14" s="38"/>
-      <c r="AO14" s="38"/>
-      <c r="AP14" s="38"/>
-      <c r="AQ14" s="38"/>
-      <c r="AR14" s="38"/>
-      <c r="AS14" s="38"/>
+      <c r="AD14" s="37"/>
+      <c r="AE14" s="37"/>
+      <c r="AF14" s="37"/>
+      <c r="AG14" s="37"/>
+      <c r="AH14" s="37"/>
+      <c r="AI14" s="37"/>
+      <c r="AJ14" s="37"/>
+      <c r="AK14" s="37"/>
+      <c r="AL14" s="37"/>
+      <c r="AM14" s="37"/>
+      <c r="AN14" s="37"/>
+      <c r="AO14" s="37"/>
+      <c r="AP14" s="37"/>
+      <c r="AQ14" s="37"/>
+      <c r="AR14" s="20"/>
+      <c r="AS14" s="20"/>
       <c r="AT14" s="20"/>
-      <c r="AU14" s="20"/>
+      <c r="AU14" s="38"/>
       <c r="AV14" s="20"/>
-      <c r="AW14" s="39"/>
-      <c r="AX14" s="39"/>
-      <c r="AY14" s="20"/>
-      <c r="AZ14" s="20"/>
-      <c r="BA14" s="20"/>
-      <c r="BB14" s="21"/>
-      <c r="BC14" s="20"/>
-      <c r="BD14" s="21"/>
-      <c r="BE14" s="20"/>
-    </row>
-    <row r="15" spans="1:69" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AW14" s="20"/>
+      <c r="AX14" s="21"/>
+      <c r="AY14" s="21"/>
+    </row>
+    <row r="15" spans="1:63" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="20"/>
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
@@ -3308,56 +3048,50 @@
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
       <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
+      <c r="J15" s="21"/>
       <c r="K15" s="20"/>
       <c r="L15" s="21"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="21"/>
       <c r="Q15" s="20"/>
-      <c r="R15" s="21"/>
+      <c r="R15" s="20"/>
       <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
+      <c r="T15" s="21"/>
       <c r="U15" s="20"/>
-      <c r="V15" s="21"/>
-      <c r="W15" s="20"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="21"/>
       <c r="X15" s="20"/>
       <c r="Y15" s="21"/>
-      <c r="Z15" s="20"/>
-      <c r="AA15" s="21"/>
+      <c r="Z15" s="22"/>
+      <c r="AA15" s="22"/>
       <c r="AB15" s="22"/>
       <c r="AC15" s="22"/>
-      <c r="AD15" s="22"/>
-      <c r="AE15" s="22"/>
-      <c r="AF15" s="38"/>
-      <c r="AG15" s="38"/>
-      <c r="AH15" s="38"/>
-      <c r="AI15" s="38"/>
-      <c r="AJ15" s="38"/>
-      <c r="AK15" s="38"/>
-      <c r="AL15" s="38"/>
-      <c r="AM15" s="38"/>
-      <c r="AN15" s="38"/>
-      <c r="AO15" s="38"/>
-      <c r="AP15" s="38"/>
-      <c r="AQ15" s="38"/>
-      <c r="AR15" s="38"/>
-      <c r="AS15" s="38"/>
+      <c r="AD15" s="37"/>
+      <c r="AE15" s="37"/>
+      <c r="AF15" s="37"/>
+      <c r="AG15" s="37"/>
+      <c r="AH15" s="37"/>
+      <c r="AI15" s="37"/>
+      <c r="AJ15" s="37"/>
+      <c r="AK15" s="37"/>
+      <c r="AL15" s="37"/>
+      <c r="AM15" s="37"/>
+      <c r="AN15" s="37"/>
+      <c r="AO15" s="37"/>
+      <c r="AP15" s="37"/>
+      <c r="AQ15" s="37"/>
+      <c r="AR15" s="20"/>
+      <c r="AS15" s="20"/>
       <c r="AT15" s="20"/>
-      <c r="AU15" s="20"/>
+      <c r="AU15" s="38"/>
       <c r="AV15" s="20"/>
-      <c r="AW15" s="39"/>
-      <c r="AX15" s="39"/>
-      <c r="AY15" s="20"/>
-      <c r="AZ15" s="20"/>
-      <c r="BA15" s="20"/>
-      <c r="BB15" s="21"/>
-      <c r="BC15" s="20"/>
-      <c r="BD15" s="21"/>
-      <c r="BE15" s="20"/>
-    </row>
-    <row r="16" spans="1:69" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AW15" s="20"/>
+      <c r="AX15" s="21"/>
+      <c r="AY15" s="21"/>
+    </row>
+    <row r="16" spans="1:63" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="20"/>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
@@ -3367,56 +3101,50 @@
       <c r="G16" s="20"/>
       <c r="H16" s="20"/>
       <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
+      <c r="J16" s="21"/>
       <c r="K16" s="20"/>
       <c r="L16" s="21"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="21"/>
       <c r="Q16" s="20"/>
-      <c r="R16" s="21"/>
+      <c r="R16" s="20"/>
       <c r="S16" s="20"/>
-      <c r="T16" s="20"/>
+      <c r="T16" s="21"/>
       <c r="U16" s="20"/>
-      <c r="V16" s="21"/>
-      <c r="W16" s="20"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="21"/>
       <c r="X16" s="20"/>
       <c r="Y16" s="21"/>
-      <c r="Z16" s="20"/>
-      <c r="AA16" s="21"/>
+      <c r="Z16" s="22"/>
+      <c r="AA16" s="22"/>
       <c r="AB16" s="22"/>
       <c r="AC16" s="22"/>
-      <c r="AD16" s="22"/>
-      <c r="AE16" s="22"/>
-      <c r="AF16" s="38"/>
-      <c r="AG16" s="38"/>
-      <c r="AH16" s="38"/>
-      <c r="AI16" s="38"/>
-      <c r="AJ16" s="38"/>
-      <c r="AK16" s="38"/>
-      <c r="AL16" s="38"/>
-      <c r="AM16" s="38"/>
-      <c r="AN16" s="38"/>
-      <c r="AO16" s="38"/>
-      <c r="AP16" s="38"/>
-      <c r="AQ16" s="38"/>
-      <c r="AR16" s="38"/>
-      <c r="AS16" s="38"/>
+      <c r="AD16" s="37"/>
+      <c r="AE16" s="37"/>
+      <c r="AF16" s="37"/>
+      <c r="AG16" s="37"/>
+      <c r="AH16" s="37"/>
+      <c r="AI16" s="37"/>
+      <c r="AJ16" s="37"/>
+      <c r="AK16" s="37"/>
+      <c r="AL16" s="37"/>
+      <c r="AM16" s="37"/>
+      <c r="AN16" s="37"/>
+      <c r="AO16" s="37"/>
+      <c r="AP16" s="37"/>
+      <c r="AQ16" s="37"/>
+      <c r="AR16" s="20"/>
+      <c r="AS16" s="20"/>
       <c r="AT16" s="20"/>
-      <c r="AU16" s="20"/>
+      <c r="AU16" s="38"/>
       <c r="AV16" s="20"/>
-      <c r="AW16" s="39"/>
-      <c r="AX16" s="39"/>
-      <c r="AY16" s="20"/>
-      <c r="AZ16" s="20"/>
-      <c r="BA16" s="20"/>
-      <c r="BB16" s="21"/>
-      <c r="BC16" s="20"/>
-      <c r="BD16" s="21"/>
-      <c r="BE16" s="20"/>
-    </row>
-    <row r="17" spans="1:57" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AW16" s="20"/>
+      <c r="AX16" s="21"/>
+      <c r="AY16" s="21"/>
+    </row>
+    <row r="17" spans="1:51" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="20"/>
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
@@ -3426,56 +3154,50 @@
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
       <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
+      <c r="J17" s="21"/>
       <c r="K17" s="20"/>
       <c r="L17" s="21"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="21"/>
       <c r="Q17" s="20"/>
-      <c r="R17" s="21"/>
+      <c r="R17" s="20"/>
       <c r="S17" s="20"/>
-      <c r="T17" s="20"/>
+      <c r="T17" s="21"/>
       <c r="U17" s="20"/>
-      <c r="V17" s="21"/>
-      <c r="W17" s="20"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="21"/>
       <c r="X17" s="20"/>
       <c r="Y17" s="21"/>
-      <c r="Z17" s="20"/>
-      <c r="AA17" s="21"/>
+      <c r="Z17" s="22"/>
+      <c r="AA17" s="22"/>
       <c r="AB17" s="22"/>
       <c r="AC17" s="22"/>
-      <c r="AD17" s="22"/>
-      <c r="AE17" s="22"/>
-      <c r="AF17" s="38"/>
-      <c r="AG17" s="38"/>
-      <c r="AH17" s="38"/>
-      <c r="AI17" s="38"/>
-      <c r="AJ17" s="38"/>
-      <c r="AK17" s="38"/>
-      <c r="AL17" s="38"/>
-      <c r="AM17" s="38"/>
-      <c r="AN17" s="38"/>
-      <c r="AO17" s="38"/>
-      <c r="AP17" s="38"/>
-      <c r="AQ17" s="38"/>
-      <c r="AR17" s="38"/>
-      <c r="AS17" s="38"/>
+      <c r="AD17" s="37"/>
+      <c r="AE17" s="37"/>
+      <c r="AF17" s="37"/>
+      <c r="AG17" s="37"/>
+      <c r="AH17" s="37"/>
+      <c r="AI17" s="37"/>
+      <c r="AJ17" s="37"/>
+      <c r="AK17" s="37"/>
+      <c r="AL17" s="37"/>
+      <c r="AM17" s="37"/>
+      <c r="AN17" s="37"/>
+      <c r="AO17" s="37"/>
+      <c r="AP17" s="37"/>
+      <c r="AQ17" s="37"/>
+      <c r="AR17" s="20"/>
+      <c r="AS17" s="20"/>
       <c r="AT17" s="20"/>
-      <c r="AU17" s="20"/>
+      <c r="AU17" s="38"/>
       <c r="AV17" s="20"/>
-      <c r="AW17" s="39"/>
-      <c r="AX17" s="39"/>
-      <c r="AY17" s="20"/>
-      <c r="AZ17" s="20"/>
-      <c r="BA17" s="20"/>
-      <c r="BB17" s="21"/>
-      <c r="BC17" s="20"/>
-      <c r="BD17" s="21"/>
-      <c r="BE17" s="20"/>
-    </row>
-    <row r="18" spans="1:57" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AW17" s="20"/>
+      <c r="AX17" s="21"/>
+      <c r="AY17" s="21"/>
+    </row>
+    <row r="18" spans="1:51" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="20"/>
       <c r="B18" s="20"/>
       <c r="C18" s="20"/>
@@ -3485,54 +3207,48 @@
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
       <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
+      <c r="J18" s="21"/>
       <c r="K18" s="20"/>
       <c r="L18" s="21"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="38"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="21"/>
       <c r="Q18" s="20"/>
-      <c r="R18" s="21"/>
+      <c r="R18" s="20"/>
       <c r="S18" s="20"/>
-      <c r="T18" s="20"/>
+      <c r="T18" s="21"/>
       <c r="U18" s="20"/>
-      <c r="V18" s="21"/>
-      <c r="W18" s="20"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="21"/>
       <c r="X18" s="20"/>
       <c r="Y18" s="21"/>
-      <c r="Z18" s="20"/>
-      <c r="AA18" s="21"/>
+      <c r="Z18" s="22"/>
+      <c r="AA18" s="22"/>
       <c r="AB18" s="22"/>
       <c r="AC18" s="22"/>
-      <c r="AD18" s="22"/>
-      <c r="AE18" s="22"/>
-      <c r="AF18" s="38"/>
-      <c r="AG18" s="38"/>
-      <c r="AH18" s="38"/>
-      <c r="AI18" s="38"/>
-      <c r="AJ18" s="38"/>
-      <c r="AK18" s="38"/>
-      <c r="AL18" s="38"/>
-      <c r="AM18" s="38"/>
-      <c r="AN18" s="38"/>
-      <c r="AO18" s="38"/>
-      <c r="AP18" s="38"/>
-      <c r="AQ18" s="38"/>
-      <c r="AR18" s="38"/>
-      <c r="AS18" s="38"/>
+      <c r="AD18" s="37"/>
+      <c r="AE18" s="37"/>
+      <c r="AF18" s="37"/>
+      <c r="AG18" s="37"/>
+      <c r="AH18" s="37"/>
+      <c r="AI18" s="37"/>
+      <c r="AJ18" s="37"/>
+      <c r="AK18" s="37"/>
+      <c r="AL18" s="37"/>
+      <c r="AM18" s="37"/>
+      <c r="AN18" s="37"/>
+      <c r="AO18" s="37"/>
+      <c r="AP18" s="37"/>
+      <c r="AQ18" s="37"/>
+      <c r="AR18" s="20"/>
+      <c r="AS18" s="20"/>
       <c r="AT18" s="20"/>
-      <c r="AU18" s="20"/>
+      <c r="AU18" s="38"/>
       <c r="AV18" s="20"/>
-      <c r="AW18" s="39"/>
-      <c r="AX18" s="39"/>
-      <c r="AY18" s="20"/>
-      <c r="AZ18" s="20"/>
-      <c r="BA18" s="20"/>
-      <c r="BB18" s="21"/>
-      <c r="BC18" s="20"/>
-      <c r="BD18" s="21"/>
-      <c r="BE18" s="20"/>
+      <c r="AW18" s="20"/>
+      <c r="AX18" s="21"/>
+      <c r="AY18" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3543,8 +3259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C226010C-3229-414E-B3FA-2CD5555C7F40}">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:I6"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3555,10 +3271,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>67</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>73</v>
       </c>
       <c r="C1" s="15"/>
       <c r="D1" s="17"/>
@@ -3570,7 +3286,7 @@
     </row>
     <row r="2" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B2" s="17">
         <v>1275</v>
@@ -3585,7 +3301,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B3" s="17">
         <v>30</v>
@@ -3600,7 +3316,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B4" s="17">
         <v>45</v>
@@ -3615,7 +3331,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B5" s="17">
         <v>35</v>
@@ -3630,7 +3346,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B6" s="17">
         <v>1.6</v>
@@ -3656,7 +3372,7 @@
     </row>
     <row r="8" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -3669,14 +3385,14 @@
     </row>
     <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B9" s="17">
         <v>160</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="17" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -3686,14 +3402,14 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B10" s="17">
         <v>208</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="17" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
@@ -3703,14 +3419,14 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B11" s="17">
         <v>1510</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="17" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
@@ -3720,14 +3436,14 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B12" s="17">
         <v>190</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
@@ -3736,191 +3452,191 @@
       <c r="I12" s="17"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="40">
+        <v>42.2</v>
+      </c>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="41">
+        <v>148.1</v>
+      </c>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="41">
+        <v>13</v>
+      </c>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="B13" s="41">
-        <v>42.2</v>
-      </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41" t="s">
+      <c r="B16" s="42">
+        <v>1.9</v>
+      </c>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="42" t="s">
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="42">
-        <v>148.1</v>
-      </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42" t="s">
+      <c r="B17" s="40">
+        <v>4.8</v>
+      </c>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="42" t="s">
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="42">
-        <v>13</v>
-      </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42" t="s">
+      <c r="B18" s="41">
+        <v>7.8</v>
+      </c>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="43" t="s">
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="B16" s="43">
-        <v>1.9</v>
-      </c>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43" t="s">
+      <c r="B19" s="41">
+        <v>3</v>
+      </c>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="41" t="s">
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="41">
-        <v>4.8</v>
-      </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41" t="s">
+      <c r="B20" s="41">
+        <v>0.2</v>
+      </c>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="42" t="s">
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="B18" s="42">
-        <v>7.8</v>
-      </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42" t="s">
+      <c r="B21" s="40">
+        <v>1</v>
+      </c>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="42" t="s">
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="B19" s="42">
+      <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42" t="s">
+      <c r="C22" s="41"/>
+      <c r="D22" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="42" t="s">
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="B20" s="42">
-        <v>0.2</v>
-      </c>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42" t="s">
+      <c r="B23" s="41">
+        <v>0</v>
+      </c>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="B21" s="41">
-        <v>1</v>
-      </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="B22" s="42">
-        <v>3</v>
-      </c>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="B23" s="42">
-        <v>0</v>
-      </c>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="23"/>
@@ -3935,7 +3651,7 @@
     </row>
     <row r="25" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -3948,14 +3664,14 @@
     </row>
     <row r="26" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B26" s="17">
         <v>300000</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
@@ -3964,117 +3680,117 @@
       <c r="I26" s="17"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="40">
+        <v>20000</v>
+      </c>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" s="43">
+        <v>1</v>
+      </c>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="44">
+        <v>0</v>
+      </c>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="B27" s="41">
-        <v>20000</v>
-      </c>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41" t="s">
+      <c r="B30" s="45">
+        <v>5</v>
+      </c>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="43" t="s">
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="B28" s="44">
-        <v>1</v>
-      </c>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43" t="s">
+      <c r="B31" s="45">
+        <v>1.5</v>
+      </c>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="43"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="41" t="s">
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="B29" s="45">
-        <v>0</v>
-      </c>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41" t="s">
+      <c r="B32" s="40">
+        <v>5000</v>
+      </c>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="B30" s="46">
-        <v>5</v>
-      </c>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="B31" s="46">
-        <v>1.5</v>
-      </c>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="B32" s="41">
-        <v>5000</v>
-      </c>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41" t="s">
-        <v>119</v>
-      </c>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B33" s="17">
         <v>30000</v>
       </c>
       <c r="C33" s="17"/>
       <c r="D33" s="17" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E33" s="17"/>
       <c r="F33" s="17"/>
@@ -4084,14 +3800,14 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B34" s="17">
         <v>2000</v>
       </c>
       <c r="C34" s="17"/>
-      <c r="D34" s="42" t="s">
-        <v>117</v>
+      <c r="D34" s="41" t="s">
+        <v>111</v>
       </c>
       <c r="E34" s="17"/>
       <c r="F34" s="17"/>
@@ -4100,32 +3816,32 @@
       <c r="I34" s="17"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="B35" s="41">
+      <c r="A35" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="B35" s="40">
         <v>10</v>
       </c>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B36" s="17">
-        <v>2000</v>
+        <v>100000</v>
       </c>
       <c r="C36" s="17"/>
       <c r="D36" s="17" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E36" s="17"/>
       <c r="F36" s="17"/>
@@ -4135,14 +3851,14 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="B37" s="47">
+        <v>121</v>
+      </c>
+      <c r="B37" s="46">
         <v>1</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E37" s="17"/>
       <c r="F37" s="17"/>
@@ -4152,14 +3868,14 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="B38" s="47">
+        <v>123</v>
+      </c>
+      <c r="B38" s="46">
         <v>0.2</v>
       </c>
       <c r="C38" s="17"/>
       <c r="D38" s="17" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E38" s="17"/>
       <c r="F38" s="17"/>
@@ -4169,14 +3885,14 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="B39" s="47">
+        <v>125</v>
+      </c>
+      <c r="B39" s="46">
         <v>1000</v>
       </c>
       <c r="C39" s="17"/>
       <c r="D39" s="17" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E39" s="17"/>
       <c r="F39" s="17"/>
@@ -4197,7 +3913,7 @@
     </row>
     <row r="41" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
@@ -4209,32 +3925,32 @@
       <c r="I41" s="17"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="41" t="s">
-        <v>134</v>
-      </c>
-      <c r="B42" s="41">
-        <v>0</v>
-      </c>
-      <c r="C42" s="41"/>
-      <c r="D42" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="E42" s="41"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="41"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="41"/>
+      <c r="A42" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="B42" s="40">
+        <v>0</v>
+      </c>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="40"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="17" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B43" s="17">
         <v>2.8</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E43" s="17"/>
       <c r="F43" s="17"/>
@@ -4244,14 +3960,14 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="B44" s="47">
-        <v>32000</v>
+        <v>132</v>
+      </c>
+      <c r="B44" s="46">
+        <v>20000</v>
       </c>
       <c r="C44" s="17"/>
       <c r="D44" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E44" s="17"/>
       <c r="F44" s="17"/>
